--- a/data/industry/CFM/UDIMM.xlsx
+++ b/data/industry/CFM/UDIMM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\industry\CFM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32776E88-D5FB-43DA-9235-E12D27A4D53F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB66FAF3-415C-466F-9615-B4C5D8DCD067}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DDR4 UDIMM 8GB 3200" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="8">
   <si>
     <t>Base Date</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -70,11 +70,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="177" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="179" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
+    <numFmt numFmtId="181" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="182" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -129,49 +129,53 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="쉼표" xfId="1" builtinId="3"/>
-    <cellStyle name="쉼표 [0]" xfId="2" builtinId="6"/>
+  <cellStyles count="2">
+    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -450,19 +454,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="12.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9" style="14"/>
+    <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -478,612 +483,635 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>45860</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>45860</v>
       </c>
-      <c r="C2" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="9">
+      <c r="C2" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="13">
         <v>13.5</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="13">
         <v>20.3</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="13">
         <v>15.5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>45867</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>45867</v>
       </c>
-      <c r="C3" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="9">
+      <c r="C3" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="13">
         <v>13.5</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="13">
         <v>20.3</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="13">
         <v>15.5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>45874</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>45874</v>
       </c>
-      <c r="C4" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="9">
+      <c r="C4" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="13">
         <v>12</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="13">
         <v>18.8</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="13">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>45881</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>45881</v>
       </c>
-      <c r="C5" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="9">
+      <c r="C5" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="13">
         <v>12</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="13">
         <v>18.8</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="13">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>45888</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>45888</v>
       </c>
-      <c r="C6" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="9">
+      <c r="C6" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="13">
         <v>12</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="13">
         <v>18.8</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="13">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>45895</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>45895</v>
       </c>
-      <c r="C7" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="9">
+      <c r="C7" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="13">
         <v>12.5</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="13">
         <v>19.3</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="13">
         <v>14.5</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>45902</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>45902</v>
       </c>
-      <c r="C8" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="9">
+      <c r="C8" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="13">
         <v>12.5</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="13">
         <v>19.3</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="13">
         <v>14.5</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>45909</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>45909</v>
       </c>
-      <c r="C9" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="9">
+      <c r="C9" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="13">
         <v>12.8</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="13">
         <v>19.600000000000001</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="13">
         <v>14.8</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>45916</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>45916</v>
       </c>
-      <c r="C10" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="9">
+      <c r="C10" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="13">
         <v>13</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="13">
         <v>19.8</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="13">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>45923</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>45923</v>
       </c>
-      <c r="C11" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="9">
+      <c r="C11" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="13">
         <v>13</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="13">
         <v>19.8</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="13">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>45930</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>45930</v>
       </c>
-      <c r="C12" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="9">
+      <c r="C12" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="13">
         <v>13</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="13">
         <v>19.8</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="13">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>45944</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>45944</v>
       </c>
-      <c r="C13" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="9">
+      <c r="C13" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="13">
         <v>15</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="13">
         <v>21.8</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="13">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>45951</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>45951</v>
       </c>
-      <c r="C14" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="9">
+      <c r="C14" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="13">
         <v>15</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="13">
         <v>21.8</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="13">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>45958</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>45958</v>
       </c>
-      <c r="C15" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="9">
+      <c r="C15" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="13">
         <v>18</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="13">
         <v>24.8</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="13">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>45965</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>45965</v>
       </c>
-      <c r="C16" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="9">
+      <c r="C16" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="13">
         <v>18</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="13">
         <v>24.8</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="13">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>45972</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>45972</v>
       </c>
-      <c r="C17" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="9">
+      <c r="C17" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="13">
         <v>18</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="13">
         <v>24.8</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="13">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>45979</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>45979</v>
       </c>
-      <c r="C18" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="9">
+      <c r="C18" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="13">
         <v>22</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="13">
         <v>28.8</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="13">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>45986</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>45986</v>
       </c>
-      <c r="C19" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="9">
+      <c r="C19" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="13">
         <v>28</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="13">
         <v>34.799999999999997</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="13">
         <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>45993</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>45993</v>
       </c>
-      <c r="C20" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="9">
+      <c r="C20" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="13">
         <v>32</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="13">
         <v>38.799999999999997</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="13">
         <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>46000</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>46000</v>
       </c>
-      <c r="C21" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="9">
+      <c r="C21" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="13">
         <v>36</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="13">
         <v>42.8</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="13">
         <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>46007</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>46007</v>
       </c>
-      <c r="C22" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="9">
+      <c r="C22" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="13">
         <v>36</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="13">
         <v>42.8</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="13">
         <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>46014</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>46014</v>
       </c>
-      <c r="C23" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="9">
+      <c r="C23" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="13">
         <v>36</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="13">
         <v>42.8</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="13">
         <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>46021</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>46021</v>
       </c>
-      <c r="C24" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="9">
+      <c r="C24" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="13">
         <v>36</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="13">
         <v>42.8</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="13">
         <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>46028</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>46028</v>
       </c>
-      <c r="C25" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="9">
+      <c r="C25" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="13">
         <v>43</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="13">
         <v>50</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="13">
         <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="10">
+      <c r="A26" s="8">
         <v>46035</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="8">
         <v>46035</v>
       </c>
-      <c r="C26" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="9">
+      <c r="C26" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="13">
         <v>43</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="13">
         <v>50</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="13">
         <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="10">
+      <c r="A27" s="8">
         <v>46042</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="8">
         <v>46042</v>
       </c>
-      <c r="C27" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="9">
+      <c r="C27" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="13">
         <v>45</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="13">
         <v>52</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="13">
         <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="8">
+        <v>46049</v>
+      </c>
+      <c r="B28" s="8">
+        <v>46049</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="14">
+        <v>48</v>
+      </c>
+      <c r="F28" s="14">
+        <v>55</v>
+      </c>
+      <c r="G28" s="14">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1094,19 +1122,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192B0709-717A-492E-9744-92D2DEF39476}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="12.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9" style="14"/>
+    <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -1122,612 +1151,635 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>45860</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>45860</v>
       </c>
-      <c r="C2" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="9">
+      <c r="C2" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="13">
         <v>26</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="13">
         <v>37.6</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="13">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>45867</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>45867</v>
       </c>
-      <c r="C3" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="9">
+      <c r="C3" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="13">
         <v>26</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="13">
         <v>37.6</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="13">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>45874</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>45874</v>
       </c>
-      <c r="C4" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="9">
+      <c r="C4" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="13">
         <v>25</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="13">
         <v>36.6</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="13">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>45881</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>45881</v>
       </c>
-      <c r="C5" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="9">
+      <c r="C5" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="13">
         <v>25</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="13">
         <v>36.6</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="13">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>45888</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>45888</v>
       </c>
-      <c r="C6" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="9">
+      <c r="C6" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="13">
         <v>25</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="13">
         <v>36.6</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="13">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>45895</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>45895</v>
       </c>
-      <c r="C7" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="9">
+      <c r="C7" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="13">
         <v>25.5</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="13">
         <v>37.1</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="13">
         <v>26.5</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>45902</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>45902</v>
       </c>
-      <c r="C8" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="9">
+      <c r="C8" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="13">
         <v>25.5</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="13">
         <v>37.1</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="13">
         <v>26.5</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>45909</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>45909</v>
       </c>
-      <c r="C9" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="9">
+      <c r="C9" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="13">
         <v>25.8</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="13">
         <v>37.4</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="13">
         <v>26.8</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>45916</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>45916</v>
       </c>
-      <c r="C10" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="9">
+      <c r="C10" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="13">
         <v>26</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="13">
         <v>37.6</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="13">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>45923</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>45923</v>
       </c>
-      <c r="C11" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="9">
+      <c r="C11" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="13">
         <v>26</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="13">
         <v>37.6</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="13">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>45930</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>45930</v>
       </c>
-      <c r="C12" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="9">
+      <c r="C12" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="13">
         <v>26</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="13">
         <v>37.6</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="13">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>45944</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>45944</v>
       </c>
-      <c r="C13" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="9">
+      <c r="C13" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="13">
         <v>30</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="13">
         <v>41.6</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="13">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>45951</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>45951</v>
       </c>
-      <c r="C14" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="9">
+      <c r="C14" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="13">
         <v>30</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="13">
         <v>41.6</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="13">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>45958</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>45958</v>
       </c>
-      <c r="C15" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="9">
+      <c r="C15" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="13">
         <v>35</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="13">
         <v>46.6</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="13">
         <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>45965</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>45965</v>
       </c>
-      <c r="C16" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="9">
+      <c r="C16" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="13">
         <v>35</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="13">
         <v>46.6</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="13">
         <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>45972</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>45972</v>
       </c>
-      <c r="C17" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="9">
+      <c r="C17" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="13">
         <v>35</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="13">
         <v>46.6</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="13">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>45979</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>45979</v>
       </c>
-      <c r="C18" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="9">
+      <c r="C18" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="13">
         <v>44</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="13">
         <v>55.6</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="13">
         <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>45986</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>45986</v>
       </c>
-      <c r="C19" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="9">
+      <c r="C19" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="13">
         <v>54</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="13">
         <v>65.599999999999994</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="13">
         <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>45993</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>45993</v>
       </c>
-      <c r="C20" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="9">
+      <c r="C20" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="13">
         <v>59</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="13">
         <v>70.599999999999994</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="13">
         <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>46000</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>46000</v>
       </c>
-      <c r="C21" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="9">
+      <c r="C21" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="13">
         <v>74</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="13">
         <v>85.6</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="13">
         <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>46007</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>46007</v>
       </c>
-      <c r="C22" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="9">
+      <c r="C22" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="13">
         <v>74</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="13">
         <v>85.6</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="13">
         <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>46014</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>46014</v>
       </c>
-      <c r="C23" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="9">
+      <c r="C23" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="13">
         <v>74</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="13">
         <v>85.6</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="13">
         <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>46021</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>46021</v>
       </c>
-      <c r="C24" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="9">
+      <c r="C24" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="13">
         <v>74</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="13">
         <v>85.6</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="13">
         <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>46028</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>46028</v>
       </c>
-      <c r="C25" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="9">
+      <c r="C25" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="13">
         <v>84</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="13">
         <v>95.6</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="13">
         <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="10">
+      <c r="A26" s="8">
         <v>46035</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="8">
         <v>46035</v>
       </c>
-      <c r="C26" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="9">
+      <c r="C26" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="13">
         <v>84</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="13">
         <v>95.6</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="13">
         <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="10">
+      <c r="A27" s="8">
         <v>46042</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="8">
         <v>46042</v>
       </c>
-      <c r="C27" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="9">
+      <c r="C27" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="13">
         <v>89</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="13">
         <v>100.6</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="13">
         <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="8">
+        <v>46049</v>
+      </c>
+      <c r="B28" s="8">
+        <v>46049</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="14">
+        <v>94</v>
+      </c>
+      <c r="F28" s="14">
+        <v>105.6</v>
+      </c>
+      <c r="G28" s="14">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1738,21 +1790,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C33C41F-CAF1-4FD5-8D91-A49D334C85A7}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G1" sqref="E1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9" style="5"/>
-    <col min="7" max="7" width="11.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="12.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="14"/>
+    <col min="7" max="7" width="11.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -1768,612 +1820,635 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>45860</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>45860</v>
       </c>
-      <c r="C2" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="9">
+      <c r="C2" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="13">
         <v>52</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="13">
         <v>67</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="13">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>45867</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>45867</v>
       </c>
-      <c r="C3" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="9">
+      <c r="C3" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="13">
         <v>52</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="13">
         <v>67</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="13">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>45874</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>45874</v>
       </c>
-      <c r="C4" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="9">
+      <c r="C4" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="13">
         <v>52</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="13">
         <v>67</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="13">
         <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>45881</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>45881</v>
       </c>
-      <c r="C5" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="9">
+      <c r="C5" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="13">
         <v>52</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="13">
         <v>67</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="13">
         <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>45888</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>45888</v>
       </c>
-      <c r="C6" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="9">
+      <c r="C6" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="13">
         <v>52</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="13">
         <v>67</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="13">
         <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>45895</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>45895</v>
       </c>
-      <c r="C7" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="9">
+      <c r="C7" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="13">
         <v>53</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="13">
         <v>68</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="13">
         <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>45902</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>45902</v>
       </c>
-      <c r="C8" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="9">
+      <c r="C8" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="13">
         <v>53</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="13">
         <v>68</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="13">
         <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>45909</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>45909</v>
       </c>
-      <c r="C9" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="9">
+      <c r="C9" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="13">
         <v>55</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="13">
         <v>70</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="13">
         <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>45916</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>45916</v>
       </c>
-      <c r="C10" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="9">
+      <c r="C10" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="13">
         <v>57</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="13">
         <v>72</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="13">
         <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>45923</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>45923</v>
       </c>
-      <c r="C11" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="9">
+      <c r="C11" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="13">
         <v>57</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="13">
         <v>72</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="13">
         <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>45930</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>45930</v>
       </c>
-      <c r="C12" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="9">
+      <c r="C12" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="13">
         <v>57</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="13">
         <v>72</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="13">
         <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>45944</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>45944</v>
       </c>
-      <c r="C13" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="9">
+      <c r="C13" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="13">
         <v>65</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="13">
         <v>80</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="13">
         <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>45951</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>45951</v>
       </c>
-      <c r="C14" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="9">
+      <c r="C14" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="13">
         <v>65</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="13">
         <v>80</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="13">
         <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>45958</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>45958</v>
       </c>
-      <c r="C15" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="9">
+      <c r="C15" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="13">
         <v>75</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="13">
         <v>90</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="13">
         <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>45965</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>45965</v>
       </c>
-      <c r="C16" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="9">
+      <c r="C16" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="13">
         <v>75</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="13">
         <v>90</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="13">
         <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>45972</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>45972</v>
       </c>
-      <c r="C17" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="9">
+      <c r="C17" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="13">
         <v>75</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="13">
         <v>90</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="13">
         <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>45979</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>45979</v>
       </c>
-      <c r="C18" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="9">
+      <c r="C18" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="13">
         <v>90</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="13">
         <v>105</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="13">
         <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>45986</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>45986</v>
       </c>
-      <c r="C19" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="9">
+      <c r="C19" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="13">
         <v>105</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="13">
         <v>120</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="13">
         <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>45993</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>45993</v>
       </c>
-      <c r="C20" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="9">
+      <c r="C20" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="13">
         <v>110</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="13">
         <v>125</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="13">
         <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>46000</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>46000</v>
       </c>
-      <c r="C21" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="9">
+      <c r="C21" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="13">
         <v>120</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="13">
         <v>135</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="13">
         <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>46007</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>46007</v>
       </c>
-      <c r="C22" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="9">
+      <c r="C22" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="13">
         <v>120</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="13">
         <v>135</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="13">
         <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>46014</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>46014</v>
       </c>
-      <c r="C23" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="9">
+      <c r="C23" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="13">
         <v>120</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="13">
         <v>135</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="13">
         <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>46021</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>46021</v>
       </c>
-      <c r="C24" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="9">
+      <c r="C24" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="13">
         <v>120</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="13">
         <v>135</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="13">
         <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>46028</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>46028</v>
       </c>
-      <c r="C25" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="9">
+      <c r="C25" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="13">
         <v>135</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="13">
         <v>150</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="13">
         <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="10">
+      <c r="A26" s="8">
         <v>46035</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="8">
         <v>46035</v>
       </c>
-      <c r="C26" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="9">
+      <c r="C26" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="13">
         <v>135</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="13">
         <v>150</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="13">
         <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="10">
+      <c r="A27" s="8">
         <v>46042</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="8">
         <v>46042</v>
       </c>
-      <c r="C27" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="9">
+      <c r="C27" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="13">
         <v>155</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="13">
         <v>170</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="13">
         <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="8">
+        <v>46049</v>
+      </c>
+      <c r="B28" s="8">
+        <v>46049</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="14">
+        <v>165</v>
+      </c>
+      <c r="F28" s="14">
+        <v>180</v>
+      </c>
+      <c r="G28" s="14">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2384,21 +2459,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A33F9B6-7347-4C68-802E-E71624384C9E}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9" style="5"/>
-    <col min="7" max="7" width="11.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="12.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="14"/>
+    <col min="7" max="7" width="11.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -2414,612 +2489,635 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>45860</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>45860</v>
       </c>
-      <c r="C2" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="9">
+      <c r="C2" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="13">
         <v>30</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="13">
         <v>34</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="13">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>45867</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>45867</v>
       </c>
-      <c r="C3" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="9">
+      <c r="C3" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="13">
         <v>30</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="13">
         <v>34</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="13">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>45874</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>45874</v>
       </c>
-      <c r="C4" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="9">
+      <c r="C4" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="13">
         <v>30</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="13">
         <v>34</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="13">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>45881</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>45881</v>
       </c>
-      <c r="C5" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="9">
+      <c r="C5" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="13">
         <v>30</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="13">
         <v>34</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="13">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>45888</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>45888</v>
       </c>
-      <c r="C6" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="9">
+      <c r="C6" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="13">
         <v>30</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="13">
         <v>34</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="13">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>45895</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>45895</v>
       </c>
-      <c r="C7" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="9">
+      <c r="C7" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="13">
         <v>31</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="13">
         <v>35</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>45902</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>45902</v>
       </c>
-      <c r="C8" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="9">
+      <c r="C8" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="13">
         <v>31.4</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="13">
         <v>35.4</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="13">
         <v>33.4</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>45909</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>45909</v>
       </c>
-      <c r="C9" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="9">
+      <c r="C9" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="13">
         <v>31.8</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="13">
         <v>35.799999999999997</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="13">
         <v>33.799999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>45916</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>45916</v>
       </c>
-      <c r="C10" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="9">
+      <c r="C10" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="13">
         <v>32</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="13">
         <v>36</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="13">
         <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>45923</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>45923</v>
       </c>
-      <c r="C11" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="9">
+      <c r="C11" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="13">
         <v>32</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="13">
         <v>36</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="13">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>45930</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>45930</v>
       </c>
-      <c r="C12" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="9">
+      <c r="C12" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="13">
         <v>32</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="13">
         <v>36</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="13">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>45944</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>45944</v>
       </c>
-      <c r="C13" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="9">
+      <c r="C13" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="13">
         <v>38.6</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="13">
         <v>42.6</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="13">
         <v>40.6</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>45951</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>45951</v>
       </c>
-      <c r="C14" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="9">
+      <c r="C14" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="13">
         <v>38.6</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="13">
         <v>42.6</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="13">
         <v>40.6</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>45958</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>45958</v>
       </c>
-      <c r="C15" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="9">
+      <c r="C15" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="13">
         <v>38.6</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="13">
         <v>42.6</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="13">
         <v>40.6</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>45965</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>45965</v>
       </c>
-      <c r="C16" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="9">
+      <c r="C16" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="13">
         <v>38.6</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="13">
         <v>42.6</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="13">
         <v>40.6</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>45972</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>45972</v>
       </c>
-      <c r="C17" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="9">
+      <c r="C17" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="13">
         <v>38.6</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="13">
         <v>42.6</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="13">
         <v>40.6</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>45979</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>45979</v>
       </c>
-      <c r="C18" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="9">
+      <c r="C18" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="13">
         <v>38.6</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="13">
         <v>42.6</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="13">
         <v>40.6</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>45986</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>45986</v>
       </c>
-      <c r="C19" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="9">
+      <c r="C19" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="13">
         <v>58</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="13">
         <v>62</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="13">
         <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>45993</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>45993</v>
       </c>
-      <c r="C20" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="9">
+      <c r="C20" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="13">
         <v>83</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="13">
         <v>87</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="13">
         <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>46000</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>46000</v>
       </c>
-      <c r="C21" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="9">
+      <c r="C21" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="13">
         <v>108</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="13">
         <v>112</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="13">
         <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>46007</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>46007</v>
       </c>
-      <c r="C22" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="9">
+      <c r="C22" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="13">
         <v>108</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="13">
         <v>112</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="13">
         <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>46014</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>46014</v>
       </c>
-      <c r="C23" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="9">
+      <c r="C23" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="13">
         <v>108</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="13">
         <v>112</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="13">
         <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>46021</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>46021</v>
       </c>
-      <c r="C24" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="9">
+      <c r="C24" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="13">
         <v>108</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="13">
         <v>112</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="13">
         <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>46028</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>46028</v>
       </c>
-      <c r="C25" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="9">
+      <c r="C25" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="13">
         <v>123</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="13">
         <v>127</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="13">
         <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="10">
+      <c r="A26" s="8">
         <v>46035</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="8">
         <v>46035</v>
       </c>
-      <c r="C26" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="9">
+      <c r="C26" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="13">
         <v>123</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="13">
         <v>127</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="13">
         <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="10">
+      <c r="A27" s="8">
         <v>46042</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="8">
         <v>46042</v>
       </c>
-      <c r="C27" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="9">
+      <c r="C27" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="13">
         <v>158</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="13">
         <v>162</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="13">
         <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="8">
+        <v>46049</v>
+      </c>
+      <c r="B28" s="8">
+        <v>46049</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="14">
+        <v>168</v>
+      </c>
+      <c r="F28" s="14">
+        <v>172</v>
+      </c>
+      <c r="G28" s="14">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -3030,21 +3128,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55494817-78A6-45DF-9F77-86066DAB20E2}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+      <selection activeCell="G1" sqref="E1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9" style="5"/>
-    <col min="7" max="7" width="11.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="12.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="14"/>
+    <col min="7" max="7" width="11.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -3060,612 +3158,635 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>45860</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>45860</v>
       </c>
-      <c r="C2" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="9">
+      <c r="C2" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="13">
         <v>33</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="13">
         <v>37</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="13">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>45867</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>45867</v>
       </c>
-      <c r="C3" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="9">
+      <c r="C3" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="13">
         <v>33</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="13">
         <v>37</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="13">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>45874</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>45874</v>
       </c>
-      <c r="C4" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="9">
+      <c r="C4" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="13">
         <v>33</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="13">
         <v>37</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="13">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>45881</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>45881</v>
       </c>
-      <c r="C5" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="9">
+      <c r="C5" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="13">
         <v>33</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="13">
         <v>37</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="13">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>45888</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>45888</v>
       </c>
-      <c r="C6" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="9">
+      <c r="C6" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="13">
         <v>33</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="13">
         <v>37</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="13">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>45895</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>45895</v>
       </c>
-      <c r="C7" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="9">
+      <c r="C7" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="13">
         <v>34</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="13">
         <v>38</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="13">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>45902</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>45902</v>
       </c>
-      <c r="C8" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="9">
+      <c r="C8" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="13">
         <v>35</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="13">
         <v>39</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="13">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>45909</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>45909</v>
       </c>
-      <c r="C9" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="9">
+      <c r="C9" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="13">
         <v>35.4</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="13">
         <v>39.4</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="13">
         <v>37.4</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>45916</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>45916</v>
       </c>
-      <c r="C10" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="9">
+      <c r="C10" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="13">
         <v>36</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="13">
         <v>40</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="13">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>45923</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>45923</v>
       </c>
-      <c r="C11" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="9">
+      <c r="C11" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="13">
         <v>36</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="13">
         <v>40</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="13">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>45930</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>45930</v>
       </c>
-      <c r="C12" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="9">
+      <c r="C12" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="13">
         <v>36</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="13">
         <v>40</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="13">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>45944</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>45944</v>
       </c>
-      <c r="C13" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="9">
+      <c r="C13" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="13">
         <v>43</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="13">
         <v>47</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="13">
         <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>45951</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>45951</v>
       </c>
-      <c r="C14" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="9">
+      <c r="C14" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="13">
         <v>43</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="13">
         <v>47</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="13">
         <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>45958</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>45958</v>
       </c>
-      <c r="C15" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="9">
+      <c r="C15" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="13">
         <v>43</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="13">
         <v>47</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="13">
         <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>45965</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>45965</v>
       </c>
-      <c r="C16" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="9">
+      <c r="C16" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="13">
         <v>43</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="13">
         <v>47</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="13">
         <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>45972</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>45972</v>
       </c>
-      <c r="C17" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="9">
+      <c r="C17" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="13">
         <v>43</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="13">
         <v>47</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="13">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>45979</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>45979</v>
       </c>
-      <c r="C18" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="9">
+      <c r="C18" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="13">
         <v>43</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="13">
         <v>47</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="13">
         <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>45986</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>45986</v>
       </c>
-      <c r="C19" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="9">
+      <c r="C19" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="13">
         <v>63</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="13">
         <v>67</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="13">
         <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>45993</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>45993</v>
       </c>
-      <c r="C20" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="9">
+      <c r="C20" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="13">
         <v>88</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="13">
         <v>92</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="13">
         <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>46000</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>46000</v>
       </c>
-      <c r="C21" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="9">
+      <c r="C21" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="13">
         <v>118</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="13">
         <v>122</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="13">
         <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>46007</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>46007</v>
       </c>
-      <c r="C22" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="9">
+      <c r="C22" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="13">
         <v>118</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="13">
         <v>122</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="13">
         <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>46014</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>46014</v>
       </c>
-      <c r="C23" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="9">
+      <c r="C23" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="13">
         <v>118</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="13">
         <v>122</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="13">
         <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>46021</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>46021</v>
       </c>
-      <c r="C24" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="9">
+      <c r="C24" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="13">
         <v>118</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="13">
         <v>122</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="13">
         <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>46028</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>46028</v>
       </c>
-      <c r="C25" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="9">
+      <c r="C25" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="13">
         <v>143</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="13">
         <v>147</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="13">
         <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="10">
+      <c r="A26" s="8">
         <v>46035</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="8">
         <v>46035</v>
       </c>
-      <c r="C26" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="9">
+      <c r="C26" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="13">
         <v>143</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="13">
         <v>147</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="13">
         <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="10">
+      <c r="A27" s="8">
         <v>46042</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="8">
         <v>46042</v>
       </c>
-      <c r="C27" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="9">
+      <c r="C27" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="13">
         <v>167</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="13">
         <v>172</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="13">
         <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="8">
+        <v>46049</v>
+      </c>
+      <c r="B28" s="8">
+        <v>46049</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="14">
+        <v>177</v>
+      </c>
+      <c r="F28" s="14">
+        <v>182</v>
+      </c>
+      <c r="G28" s="14">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3676,21 +3797,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B6A378-E9BB-4F97-B1F3-B76BB8A3CEFF}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9" style="5"/>
-    <col min="7" max="7" width="11.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="12.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="11"/>
+    <col min="7" max="7" width="11.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -3706,612 +3827,635 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>45860</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>45860</v>
       </c>
-      <c r="C2" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="9">
+      <c r="C2" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="10">
         <v>62</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="10">
         <v>68</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="10">
         <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>45867</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>45867</v>
       </c>
-      <c r="C3" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="9">
+      <c r="C3" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="10">
         <v>62</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="10">
         <v>68</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="10">
         <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>45874</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>45874</v>
       </c>
-      <c r="C4" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="9">
+      <c r="C4" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="10">
         <v>62</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="10">
         <v>68</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="10">
         <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>45881</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>45881</v>
       </c>
-      <c r="C5" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="9">
+      <c r="C5" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="10">
         <v>62</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="10">
         <v>68</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="10">
         <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>45888</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>45888</v>
       </c>
-      <c r="C6" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="9">
+      <c r="C6" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="10">
         <v>62</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="10">
         <v>68</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="10">
         <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>45895</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>45895</v>
       </c>
-      <c r="C7" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="9">
+      <c r="C7" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="10">
         <v>63</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="10">
         <v>69</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="10">
         <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>45902</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>45902</v>
       </c>
-      <c r="C8" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="9">
+      <c r="C8" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="10">
         <v>65</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="10">
         <v>71</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="10">
         <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>45909</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>45909</v>
       </c>
-      <c r="C9" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="9">
+      <c r="C9" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="10">
         <v>65.5</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="10">
         <v>71.5</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="10">
         <v>68.5</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>45916</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>45916</v>
       </c>
-      <c r="C10" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="9">
+      <c r="C10" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="10">
         <v>66.2</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="10">
         <v>72.2</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="10">
         <v>69.2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>45923</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>45923</v>
       </c>
-      <c r="C11" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="9">
+      <c r="C11" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="10">
         <v>66.2</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="10">
         <v>72.2</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="10">
         <v>69.2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>45930</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>45930</v>
       </c>
-      <c r="C12" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="9">
+      <c r="C12" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="10">
         <v>66.2</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="10">
         <v>72.2</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="10">
         <v>69.2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>45944</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>45944</v>
       </c>
-      <c r="C13" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="9">
+      <c r="C13" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="10">
         <v>79</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="10">
         <v>85</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="10">
         <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>45951</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>45951</v>
       </c>
-      <c r="C14" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="9">
+      <c r="C14" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="10">
         <v>79</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="10">
         <v>85</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="10">
         <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>45958</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>45958</v>
       </c>
-      <c r="C15" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="9">
+      <c r="C15" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="10">
         <v>79</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="10">
         <v>85</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="10">
         <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>45965</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>45965</v>
       </c>
-      <c r="C16" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="9">
+      <c r="C16" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="10">
         <v>79</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="10">
         <v>85</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="10">
         <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>45972</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>45972</v>
       </c>
-      <c r="C17" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="9">
+      <c r="C17" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="10">
         <v>79</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="10">
         <v>85</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="10">
         <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>45979</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>45979</v>
       </c>
-      <c r="C18" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="9">
+      <c r="C18" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="10">
         <v>79</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="10">
         <v>85</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="10">
         <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>45986</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>45986</v>
       </c>
-      <c r="C19" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="9">
+      <c r="C19" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="10">
         <v>114</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="10">
         <v>120</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="10">
         <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>45993</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>45993</v>
       </c>
-      <c r="C20" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="9">
+      <c r="C20" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="10">
         <v>157</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="10">
         <v>163</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="10">
         <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>46000</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>46000</v>
       </c>
-      <c r="C21" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="9">
+      <c r="C21" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="10">
         <v>217</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="10">
         <v>223</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="10">
         <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>46007</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>46007</v>
       </c>
-      <c r="C22" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="9">
+      <c r="C22" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="10">
         <v>217</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="10">
         <v>223</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="10">
         <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>46014</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>46014</v>
       </c>
-      <c r="C23" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="9">
+      <c r="C23" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="10">
         <v>217</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="10">
         <v>223</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="10">
         <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>46021</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>46021</v>
       </c>
-      <c r="C24" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="9">
+      <c r="C24" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="10">
         <v>217</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="10">
         <v>223</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="10">
         <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>46028</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>46028</v>
       </c>
-      <c r="C25" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="9">
+      <c r="C25" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="10">
         <v>227</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="10">
         <v>233</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="10">
         <v>230</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="10">
+      <c r="A26" s="8">
         <v>46035</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="8">
         <v>46035</v>
       </c>
-      <c r="C26" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="9">
+      <c r="C26" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="10">
         <v>227</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="10">
         <v>233</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="10">
         <v>230</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="10">
+      <c r="A27" s="8">
         <v>46042</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="8">
         <v>46042</v>
       </c>
-      <c r="C27" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="9">
+      <c r="C27" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="10">
         <v>257</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="10">
         <v>263</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="10">
         <v>260</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="8">
+        <v>46049</v>
+      </c>
+      <c r="B28" s="8">
+        <v>46049</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="11">
+        <v>267</v>
+      </c>
+      <c r="F28" s="11">
+        <v>273</v>
+      </c>
+      <c r="G28" s="11">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -4322,21 +4466,21 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2BE078-281B-4EE8-A7DD-0530E85C5130}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9" style="5"/>
-    <col min="7" max="7" width="11.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="12.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="11"/>
+    <col min="7" max="7" width="11.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -4352,612 +4496,635 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>45860</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>45860</v>
       </c>
-      <c r="C2" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="9">
+      <c r="C2" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="10">
         <v>64</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="10">
         <v>70</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="10">
         <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>45867</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>45867</v>
       </c>
-      <c r="C3" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="9">
+      <c r="C3" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="10">
         <v>64</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="10">
         <v>70</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="10">
         <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>45874</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>45874</v>
       </c>
-      <c r="C4" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="9">
+      <c r="C4" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="10">
         <v>64</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="10">
         <v>70</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="10">
         <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>45881</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>45881</v>
       </c>
-      <c r="C5" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="9">
+      <c r="C5" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="10">
         <v>64</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="10">
         <v>70</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="10">
         <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>45888</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>45888</v>
       </c>
-      <c r="C6" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="9">
+      <c r="C6" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="10">
         <v>64</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="10">
         <v>70</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="10">
         <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>45895</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>45895</v>
       </c>
-      <c r="C7" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="9">
+      <c r="C7" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="10">
         <v>65</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="10">
         <v>71</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="10">
         <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>45902</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>45902</v>
       </c>
-      <c r="C8" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="9">
+      <c r="C8" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="10">
         <v>67</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="10">
         <v>73</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="10">
         <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>45909</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>45909</v>
       </c>
-      <c r="C9" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="9">
+      <c r="C9" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="10">
         <v>68</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="10">
         <v>74</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="10">
         <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>45916</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>45916</v>
       </c>
-      <c r="C10" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="9">
+      <c r="C10" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="10">
         <v>69</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="10">
         <v>75</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="10">
         <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>45923</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>45923</v>
       </c>
-      <c r="C11" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="9">
+      <c r="C11" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="10">
         <v>69</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="10">
         <v>75</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="10">
         <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>45930</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>45930</v>
       </c>
-      <c r="C12" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="9">
+      <c r="C12" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="10">
         <v>69</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="10">
         <v>75</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="10">
         <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>45944</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>45944</v>
       </c>
-      <c r="C13" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="9">
+      <c r="C13" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="10">
         <v>82</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="10">
         <v>88</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="10">
         <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>45951</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>45951</v>
       </c>
-      <c r="C14" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="9">
+      <c r="C14" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="10">
         <v>82</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="10">
         <v>88</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="10">
         <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>45958</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>45958</v>
       </c>
-      <c r="C15" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="9">
+      <c r="C15" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="10">
         <v>82</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="10">
         <v>88</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="10">
         <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>45965</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>45965</v>
       </c>
-      <c r="C16" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="9">
+      <c r="C16" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="10">
         <v>82</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="10">
         <v>88</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="10">
         <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>45972</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>45972</v>
       </c>
-      <c r="C17" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="9">
+      <c r="C17" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="10">
         <v>82</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="10">
         <v>88</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="10">
         <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>45979</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>45979</v>
       </c>
-      <c r="C18" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="9">
+      <c r="C18" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="10">
         <v>82</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="10">
         <v>88</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="10">
         <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>45986</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>45986</v>
       </c>
-      <c r="C19" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="9">
+      <c r="C19" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="10">
         <v>117</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="10">
         <v>123</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="10">
         <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>45993</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>45993</v>
       </c>
-      <c r="C20" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="9">
+      <c r="C20" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="10">
         <v>167</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="10">
         <v>173</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="10">
         <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>46000</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>46000</v>
       </c>
-      <c r="C21" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="9">
+      <c r="C21" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="10">
         <v>227</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="10">
         <v>233</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="10">
         <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>46007</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>46007</v>
       </c>
-      <c r="C22" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="9">
+      <c r="C22" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="10">
         <v>227</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="10">
         <v>233</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="10">
         <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>46014</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>46014</v>
       </c>
-      <c r="C23" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="9">
+      <c r="C23" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="10">
         <v>227</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="10">
         <v>233</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="10">
         <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>46021</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>46021</v>
       </c>
-      <c r="C24" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="9">
+      <c r="C24" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="10">
         <v>227</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="10">
         <v>233</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="10">
         <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>46028</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>46028</v>
       </c>
-      <c r="C25" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="9">
+      <c r="C25" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="10">
         <v>247</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="10">
         <v>253</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="10">
         <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="10">
+      <c r="A26" s="8">
         <v>46035</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="8">
         <v>46035</v>
       </c>
-      <c r="C26" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="9">
+      <c r="C26" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="10">
         <v>247</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="10">
         <v>253</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="10">
         <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="10">
+      <c r="A27" s="8">
         <v>46042</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="8">
         <v>46042</v>
       </c>
-      <c r="C27" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="9">
+      <c r="C27" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="10">
         <v>267</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="10">
         <v>273</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="10">
         <v>270</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="8">
+        <v>46049</v>
+      </c>
+      <c r="B28" s="8">
+        <v>46049</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="11">
+        <v>277</v>
+      </c>
+      <c r="F28" s="11">
+        <v>283</v>
+      </c>
+      <c r="G28" s="11">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
